--- a/Excel/MetalConfig.xlsx
+++ b/Excel/MetalConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -44,10 +44,16 @@
     <t>RiseAttr</t>
   </si>
   <si>
+    <t>RiseLog</t>
+  </si>
+  <si>
     <t>RisePower</t>
   </si>
   <si>
     <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>Quality</t>
   </si>
   <si>
     <t>Des</t>
@@ -1149,23 +1155,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J27"/>
+  <dimension ref="C3:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="9" width="12.25" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1190,8 +1196,14 @@
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1216,39 +1228,51 @@
       <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1263,18 +1287,24 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <v>1000000</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -1289,18 +1319,24 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
         <v>1000000</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1315,18 +1351,24 @@
         <v>10</v>
       </c>
       <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
         <v>1000000</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -1341,18 +1383,24 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <v>1000000</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:10">
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:12">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -1367,18 +1415,24 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
         <v>1000000</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>15</v>
@@ -1390,21 +1444,27 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
         <v>10000</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1">
         <v>16</v>
@@ -1416,21 +1476,27 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
         <v>10000</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1">
         <v>14</v>
@@ -1442,21 +1508,27 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
         <v>10000</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:10">
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:12">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1">
         <v>26</v>
@@ -1468,21 +1540,27 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
         <v>10000</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:10">
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:12">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1">
         <v>27</v>
@@ -1494,21 +1572,27 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
         <v>10000</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:10">
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:12">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1">
         <v>28</v>
@@ -1520,21 +1604,27 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
         <v>10000</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:10">
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:12">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1">
         <v>33</v>
@@ -1546,21 +1636,27 @@
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
         <v>10000</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:10">
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:12">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1">
         <v>34</v>
@@ -1572,21 +1668,27 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
         <v>10000</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:10">
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:12">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1">
         <v>35</v>
@@ -1598,21 +1700,27 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
         <v>10000</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:10">
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:12">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1">
         <v>2003</v>
@@ -1627,18 +1735,24 @@
         <v>0</v>
       </c>
       <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>100</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:10">
+      <c r="K20" s="1">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:12">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1">
         <v>2002</v>
@@ -1653,18 +1767,24 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
         <v>100</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:10">
+      <c r="K21" s="1">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:12">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1">
         <v>2001</v>
@@ -1679,18 +1799,24 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
         <v>100</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:10">
+      <c r="K22" s="1">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:12">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1">
         <v>2005</v>
@@ -1705,18 +1831,24 @@
         <v>0</v>
       </c>
       <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
         <v>100</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:10">
+      <c r="K23" s="1">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:12">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1">
         <v>2006</v>
@@ -1731,18 +1863,24 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <v>100</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:10">
+      <c r="K24" s="1">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:12">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1">
         <v>2003</v>
@@ -1757,18 +1895,24 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <v>100</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:10">
+      <c r="K25" s="1">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:12">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1">
         <v>2010</v>
@@ -1783,18 +1927,24 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
         <v>100</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:10">
+      <c r="K26" s="1">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:12">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1">
         <v>2011</v>
@@ -1809,10 +1959,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
         <v>100</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>54</v>
+      <c r="K27" s="1">
+        <v>6</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MetalConfig.xlsx
+++ b/Excel/MetalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="C3:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
         <v>1000000</v>
@@ -1316,10 +1316,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
         <v>1000000</v>
@@ -1342,16 +1342,16 @@
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1">
         <v>1000000</v>
@@ -1374,16 +1374,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
         <v>1000000</v>
@@ -1406,16 +1406,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1">
         <v>1000000</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>

--- a/Excel/MetalConfig.xlsx
+++ b/Excel/MetalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -179,13 +179,10 @@
     <t>星叶石</t>
   </si>
   <si>
-    <t>魔法倍率</t>
+    <t>道术倍率</t>
   </si>
   <si>
     <t>方解石</t>
-  </si>
-  <si>
-    <t>道术倍率</t>
   </si>
   <si>
     <t>黑蠗石</t>
@@ -1158,7 +1155,7 @@
   <dimension ref="C3:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1883,7 +1880,7 @@
         <v>51</v>
       </c>
       <c r="E25" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1904,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:12">
@@ -1912,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="1">
         <v>2010</v>
@@ -1936,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:12">
@@ -1944,7 +1941,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1">
         <v>2011</v>
@@ -1968,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MetalConfig.xlsx
+++ b/Excel/MetalConfig.xlsx
@@ -185,7 +185,7 @@
     <t>方解石</t>
   </si>
   <si>
-    <t>黑蠗石</t>
+    <t>黑曜石</t>
   </si>
   <si>
     <t>增伤倍率</t>
@@ -1155,7 +1155,7 @@
   <dimension ref="C3:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/MetalConfig.xlsx
+++ b/Excel/MetalConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Quality</t>
   </si>
   <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -195,6 +198,54 @@
   </si>
   <si>
     <t>减伤倍率</t>
+  </si>
+  <si>
+    <t>幸运石</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>白水晶</t>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>太阳石</t>
+  </si>
+  <si>
+    <t>爆伤</t>
+  </si>
+  <si>
+    <t>泰坦石</t>
+  </si>
+  <si>
+    <t>减伤</t>
+  </si>
+  <si>
+    <t>矿石之精</t>
+  </si>
+  <si>
+    <t>蓝矿等级+{0}%</t>
+  </si>
+  <si>
+    <t>宝石之精</t>
+  </si>
+  <si>
+    <t>绿矿等级+{0}%</t>
+  </si>
+  <si>
+    <t>水晶之心</t>
+  </si>
+  <si>
+    <t>紫矿等级+{0}%</t>
+  </si>
+  <si>
+    <t>异石之心</t>
+  </si>
+  <si>
+    <t>红矿等级+{0}%</t>
   </si>
 </sst>
 </file>
@@ -207,7 +258,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +276,12 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF05073B"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -697,142 +754,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1152,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:L27"/>
+  <dimension ref="C3:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1163,12 +1221,12 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="11.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1199,8 +1257,11 @@
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1231,45 +1292,51 @@
       <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="M5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1292,16 +1359,19 @@
       <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -1324,16 +1394,19 @@
       <c r="K7" s="1">
         <v>3</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1356,16 +1429,19 @@
       <c r="K8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -1388,16 +1464,19 @@
       <c r="K9" s="1">
         <v>3</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:12">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:13">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -1420,16 +1499,19 @@
       <c r="K10" s="1">
         <v>3</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>15</v>
@@ -1441,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
@@ -1452,16 +1534,19 @@
       <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1">
         <v>16</v>
@@ -1473,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
@@ -1484,16 +1569,19 @@
       <c r="K12" s="1">
         <v>4</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1">
         <v>14</v>
@@ -1505,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -1516,16 +1604,19 @@
       <c r="K13" s="1">
         <v>4</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:12">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:13">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>26</v>
@@ -1537,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -1548,16 +1639,19 @@
       <c r="K14" s="1">
         <v>4</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:12">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:13">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1">
         <v>27</v>
@@ -1569,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -1580,16 +1674,19 @@
       <c r="K15" s="1">
         <v>4</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:12">
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:13">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1">
         <v>28</v>
@@ -1612,16 +1709,19 @@
       <c r="K16" s="1">
         <v>4</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:12">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:13">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1">
         <v>33</v>
@@ -1644,16 +1744,19 @@
       <c r="K17" s="1">
         <v>5</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:12">
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:13">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1">
         <v>34</v>
@@ -1676,16 +1779,19 @@
       <c r="K18" s="1">
         <v>5</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:12">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:13">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1">
         <v>35</v>
@@ -1708,16 +1814,19 @@
       <c r="K19" s="1">
         <v>5</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:12">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:13">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1">
         <v>2003</v>
@@ -1740,16 +1849,19 @@
       <c r="K20" s="1">
         <v>6</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:12">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:13">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1">
         <v>2002</v>
@@ -1772,16 +1884,19 @@
       <c r="K21" s="1">
         <v>6</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:12">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:13">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1">
         <v>2001</v>
@@ -1804,16 +1919,19 @@
       <c r="K22" s="1">
         <v>6</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:12">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:13">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1">
         <v>2005</v>
@@ -1836,16 +1954,19 @@
       <c r="K23" s="1">
         <v>6</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:12">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:13">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1">
         <v>2006</v>
@@ -1868,16 +1989,19 @@
       <c r="K24" s="1">
         <v>6</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:12">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:13">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1">
         <v>2004</v>
@@ -1900,16 +2024,19 @@
       <c r="K25" s="1">
         <v>6</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:12">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:13">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1">
         <v>2010</v>
@@ -1932,16 +2059,19 @@
       <c r="K26" s="1">
         <v>6</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:12">
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:13">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1">
         <v>2011</v>
@@ -1964,13 +2094,296 @@
       <c r="K27" s="1">
         <v>6</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>55</v>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:13">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:13">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="1">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>50</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:13">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>50</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:13">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="1">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>50</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:13">
+      <c r="C32" s="1">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:13">
+      <c r="C33" s="1">
+        <v>102</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:13">
+      <c r="C34" s="1">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>7</v>
+      </c>
+      <c r="L34" s="1">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:13">
+      <c r="C35" s="1">
+        <v>104</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1">
+        <v>6</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 C4:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MetalConfig.xlsx
+++ b/Excel/MetalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>Target</t>
+    <t>RiseQuality</t>
   </si>
   <si>
     <t>Des</t>
@@ -233,13 +233,13 @@
     <t>宝石之精</t>
   </si>
   <si>
-    <t>绿矿等级+{0}%</t>
+    <t>紫矿等级+{0}%</t>
   </si>
   <si>
     <t>水晶之心</t>
   </si>
   <si>
-    <t>紫矿等级+{0}%</t>
+    <t>橙矿等级+{0}%</t>
   </si>
   <si>
     <t>异石之心</t>
@@ -1212,8 +1212,8 @@
   <sheetPr/>
   <dimension ref="C3:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/MetalConfig.xlsx
+++ b/Excel/MetalConfig.xlsx
@@ -1213,7 +1213,7 @@
   <dimension ref="C3:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
